--- a/data/trans_dic/P0901-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1242936089843577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08741271738695973</v>
+        <v>0.08741271738695976</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1988687156651222</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07775464842513247</v>
+        <v>0.07473579378324488</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1028237079816554</v>
+        <v>0.1022822002936961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08812372719775476</v>
+        <v>0.08898584253044137</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0628669753664563</v>
+        <v>0.06025882128673854</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1492795362786247</v>
+        <v>0.1528575291478679</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2250600420581937</v>
+        <v>0.2234778618338824</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2153062975077216</v>
+        <v>0.212098196849795</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1103725031067539</v>
+        <v>0.1087611002859701</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1229427848705994</v>
+        <v>0.1222289304359336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1719354312005109</v>
+        <v>0.1709073859240542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1574091937687004</v>
+        <v>0.1601767650026063</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09177793388262728</v>
+        <v>0.09288888715064163</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1494563988988676</v>
+        <v>0.1495524772866562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1837080221851106</v>
+        <v>0.186714456048486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1676275621209683</v>
+        <v>0.1714304532012478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1242560062287658</v>
+        <v>0.1213506205108104</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2481072594754353</v>
+        <v>0.252082209526113</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3362825827943017</v>
+        <v>0.3374151315546313</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3176459336957094</v>
+        <v>0.3173425342327396</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1694384944984163</v>
+        <v>0.1695028043022985</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1894368701461024</v>
+        <v>0.185090538340327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2440105325732328</v>
+        <v>0.2410506640469273</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2295290906321444</v>
+        <v>0.2271796225533129</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.134150834211493</v>
+        <v>0.1365009489763622</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07149051354002164</v>
+        <v>0.06986062394845145</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0833257353378228</v>
+        <v>0.08314780676661047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06353823143794265</v>
+        <v>0.06135516264984585</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1475614212212082</v>
+        <v>0.1462640875448201</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1462571512308366</v>
+        <v>0.1500196680620692</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1559981277093223</v>
+        <v>0.1578571412644827</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1318970311890623</v>
+        <v>0.132973980500676</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.210908599500346</v>
+        <v>0.2112205405201185</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1179564549287406</v>
+        <v>0.1177445105402197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.128853111085066</v>
+        <v>0.1281401881609129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1058666053671086</v>
+        <v>0.106391953302717</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1883975810248386</v>
+        <v>0.1883922670188838</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.125368626394185</v>
+        <v>0.1248627724609002</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.146948903916492</v>
+        <v>0.1513792500185015</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1134661653305192</v>
+        <v>0.1132985084947314</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2220466236068594</v>
+        <v>0.2254782634466344</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2177007149704339</v>
+        <v>0.2177622099083378</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2294339075783165</v>
+        <v>0.227169499697374</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2009407667652479</v>
+        <v>0.2023882184819641</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2730270525731988</v>
+        <v>0.2732627590731231</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.161067081253747</v>
+        <v>0.1599253471340532</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1747970209070174</v>
+        <v>0.1756018502613874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1486041320593456</v>
+        <v>0.1492153216615227</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.236016674150109</v>
+        <v>0.2380675472901254</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03702158191876038</v>
+        <v>0.03882663651644621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08673560188878789</v>
+        <v>0.08951546050166548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05770416800550743</v>
+        <v>0.05971133937227721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.109366296717182</v>
+        <v>0.1091389264510857</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1024506516252471</v>
+        <v>0.1051669774308219</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1560844701245804</v>
+        <v>0.1523578954797455</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08767788573836797</v>
+        <v>0.08728597452485772</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1556450332224399</v>
+        <v>0.1563687540865981</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07812807557054953</v>
+        <v>0.07996724350507137</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1310918945832927</v>
+        <v>0.1313260624807608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08218414947477765</v>
+        <v>0.08391391675255794</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1418376126367503</v>
+        <v>0.143459297943135</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09441060029240277</v>
+        <v>0.09715539347068768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1641578336754002</v>
+        <v>0.1730578482302992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1226495768780826</v>
+        <v>0.1179695763984737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1804216866411259</v>
+        <v>0.1761514242174305</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1766621760520749</v>
+        <v>0.1785811269402957</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2488916786673282</v>
+        <v>0.2397775763509347</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1659742121009004</v>
+        <v>0.1628337074425282</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2176274295421546</v>
+        <v>0.2196776041546462</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1241892973486223</v>
+        <v>0.1255289876446951</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1901573091228258</v>
+        <v>0.1903025593743252</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1320171520207533</v>
+        <v>0.1303969580068825</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1888822905954834</v>
+        <v>0.1869868456758901</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1701367017674225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.18831734659817</v>
+        <v>0.1883173465981701</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1625239328921216</v>
@@ -1093,7 +1093,7 @@
         <v>0.3250396264661638</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2512879559526969</v>
+        <v>0.251287955952697</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1079103914506837</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03046075429748914</v>
+        <v>0.03191281499712281</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.124141964604072</v>
+        <v>0.1217752893090469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1330090833592504</v>
+        <v>0.1323321454192823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1423880821098716</v>
+        <v>0.1479921763175826</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1274936775406939</v>
+        <v>0.1274533784505549</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2803234888664143</v>
+        <v>0.2818205726802221</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2745438466971981</v>
+        <v>0.282576024641125</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2128273000729857</v>
+        <v>0.2161273595699313</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08430458912600718</v>
+        <v>0.08754122618638403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2166864609285132</v>
+        <v>0.2146421777313889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2167702368652953</v>
+        <v>0.2181624252969755</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1934547881287324</v>
+        <v>0.19179146971841</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07631055003654715</v>
+        <v>0.08035997637793546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.200528972328808</v>
+        <v>0.1989008282142409</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2134171773040337</v>
+        <v>0.2187748247104986</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2419079311311013</v>
+        <v>0.2398236499326173</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2012293135534993</v>
+        <v>0.20407947987509</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3763375322910002</v>
+        <v>0.3782121981912168</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3718888859257468</v>
+        <v>0.3789235448674399</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.290431628695323</v>
+        <v>0.2954071338598546</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1314804859594496</v>
+        <v>0.1325858576587922</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2792644884763408</v>
+        <v>0.2792055739422279</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2842948906067166</v>
+        <v>0.2878711247031323</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2527902451656755</v>
+        <v>0.2537485390323793</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1082946918935143</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09768421126649618</v>
+        <v>0.09768421126649619</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0453308560659141</v>
+        <v>0.0430450655180831</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08180917899181149</v>
+        <v>0.08303355005786564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05059330902154588</v>
+        <v>0.04842613321522509</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04185214318064856</v>
+        <v>0.0429419104060384</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08017363801260134</v>
+        <v>0.0806575728351812</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.192283287636683</v>
+        <v>0.196120352216772</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09168422867879353</v>
+        <v>0.09243907260100742</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0989688853100865</v>
+        <v>0.09680114399019613</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06917348974648913</v>
+        <v>0.07336407142936036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1542798809207396</v>
+        <v>0.1537627217076398</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08059000452026607</v>
+        <v>0.08263963546147921</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08008570240595075</v>
+        <v>0.07911260692216661</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1190681869610215</v>
+        <v>0.1185362152491597</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.176964596549004</v>
+        <v>0.1775714244652008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1281636830461863</v>
+        <v>0.1310694413332224</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09734245543157323</v>
+        <v>0.09857697463115357</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1765406674936812</v>
+        <v>0.1771427707067205</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3138986676254009</v>
+        <v>0.3111689271354725</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1872352779157545</v>
+        <v>0.1883817287767217</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1573177139487363</v>
+        <v>0.1561110084197435</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1308794712151678</v>
+        <v>0.1324180939908866</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2291742502005014</v>
+        <v>0.2290852505661327</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1395983821724865</v>
+        <v>0.1445610728517399</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1225105706095682</v>
+        <v>0.1192966945551021</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2434090465186673</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1678893585767317</v>
+        <v>0.1678893585767316</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1353638004976661</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06707895988820112</v>
+        <v>0.06394716763873409</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09579588724002973</v>
+        <v>0.1015914025444917</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1220606968702706</v>
+        <v>0.1244895064842391</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09455339745079813</v>
+        <v>0.09529468215197594</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1250318125828233</v>
+        <v>0.1293671271423106</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1326537788052291</v>
+        <v>0.1314316383822858</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1925213763120031</v>
+        <v>0.189727838660089</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1391839733502642</v>
+        <v>0.1384154259212148</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.107723532833764</v>
+        <v>0.1112985014767597</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1268780865160468</v>
+        <v>0.1256006126598674</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1710918990639206</v>
+        <v>0.1697966101517122</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1239560425999001</v>
+        <v>0.1221347747074264</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1433020060869619</v>
+        <v>0.1403444722306566</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1823546361917177</v>
+        <v>0.1846737267791986</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2147703671584402</v>
+        <v>0.2155468416109327</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1605654122441175</v>
+        <v>0.1599348614781257</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2141798319906372</v>
+        <v>0.2144862660208038</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2260723391527563</v>
+        <v>0.2196231315141034</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3008299346266469</v>
+        <v>0.3008544954597167</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2025487107977903</v>
+        <v>0.200724685336153</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1675820677071796</v>
+        <v>0.1674261693272674</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1916375167006664</v>
+        <v>0.186550668471938</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2418376709210875</v>
+        <v>0.2426671520007088</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1691004442347432</v>
+        <v>0.1670176803841516</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1093637628626237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1445709241976127</v>
+        <v>0.1445709241976126</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1396910391029769</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07484112776103208</v>
+        <v>0.07409019526711511</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07040096670408652</v>
+        <v>0.07134451082462816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08341819016457955</v>
+        <v>0.08489862437396102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1202524917780846</v>
+        <v>0.1168324159100097</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1148749918311645</v>
+        <v>0.1140463149523839</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1351795858722444</v>
+        <v>0.1296517760488806</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1785255428721012</v>
+        <v>0.1738861126847304</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.218174662261934</v>
+        <v>0.2224563852829368</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1007157089663306</v>
+        <v>0.09937148000053578</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1101342461822409</v>
+        <v>0.1097621455582912</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1408749832080758</v>
+        <v>0.1401898027215085</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1782161645147455</v>
+        <v>0.1786911393875074</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1243109603262423</v>
+        <v>0.121508430647914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1178757996621632</v>
+        <v>0.1194943687199416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1386433899262704</v>
+        <v>0.1355639619952033</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.176127650071877</v>
+        <v>0.1744797085829195</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1681644295866539</v>
+        <v>0.1692049980179223</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1896934295311638</v>
+        <v>0.1871274471734477</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.243762941052195</v>
+        <v>0.2404824094309402</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2735725244949939</v>
+        <v>0.2755412979306952</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1378775797541328</v>
+        <v>0.1361765593229634</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1484289034072754</v>
+        <v>0.1470146937857281</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1813924079117062</v>
+        <v>0.182048360680609</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2185913264588542</v>
+        <v>0.2178925498918724</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08637935123056766</v>
+        <v>0.08714667633897241</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09043900925416676</v>
+        <v>0.0930416901205669</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05081973697995055</v>
+        <v>0.05143482688019362</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09430334982986277</v>
+        <v>0.09432879530945973</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1507984554504829</v>
+        <v>0.1552782888722243</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1620996020002268</v>
+        <v>0.1573623916123774</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1181180922973502</v>
+        <v>0.1204553745512209</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1756067609457986</v>
+        <v>0.1761932742412257</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1285798391162651</v>
+        <v>0.127327785031067</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1341801717485469</v>
+        <v>0.13461669223154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.09232878076421905</v>
+        <v>0.09297185609470121</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1441909392817977</v>
+        <v>0.1416707375520028</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1313201373596389</v>
+        <v>0.1317806880218965</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1407766423641672</v>
+        <v>0.1451022845338555</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0878481741466237</v>
+        <v>0.08998336893561189</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1386497971746513</v>
+        <v>0.1371902662117802</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2089194805119404</v>
+        <v>0.2117762690299321</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2199193192822714</v>
+        <v>0.2161179807012395</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1709345649292233</v>
+        <v>0.1741459932688494</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2221453499608934</v>
+        <v>0.2209390963273813</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1631934151642434</v>
+        <v>0.1637198850776144</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1729935396341627</v>
+        <v>0.1723168777729873</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1247850859638633</v>
+        <v>0.1260736543435463</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1764322972478966</v>
+        <v>0.1731764096486247</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.1047915443360537</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.1362390907504479</v>
+        <v>0.1362390907504478</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1633919315485758</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1078553968080006</v>
+        <v>0.1088186411950871</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0939726032463061</v>
+        <v>0.09418679776645994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1253320372372146</v>
+        <v>0.1243143634798648</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1967315831844514</v>
+        <v>0.1946451627217343</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1815419577025603</v>
+        <v>0.1807205435782121</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1971689094370952</v>
+        <v>0.1961645899983037</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1561358389762603</v>
+        <v>0.1563569777914434</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1421947176966632</v>
+        <v>0.1418136772379116</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1654950035265162</v>
+        <v>0.1636937698425313</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1318808105064159</v>
+        <v>0.1313541299683496</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1149660775426758</v>
+        <v>0.1149141306645992</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.14867744643235</v>
+        <v>0.1476942797834256</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2245248433481863</v>
+        <v>0.2232502212352256</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2095469474473365</v>
+        <v>0.2095764110453334</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.21825723325394</v>
+        <v>0.2187012870297135</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1753468811074753</v>
+        <v>0.1748981137437628</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1592546838866282</v>
+        <v>0.1592307219938988</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1814216871521063</v>
+        <v>0.1803740377201193</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21228</v>
+        <v>20404</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30306</v>
+        <v>30146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25887</v>
+        <v>26141</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20045</v>
+        <v>19213</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>38938</v>
+        <v>39871</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64647</v>
+        <v>64193</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>62160</v>
+        <v>61233</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>34884</v>
+        <v>34375</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>65633</v>
+        <v>65252</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>100063</v>
+        <v>99465</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>91685</v>
+        <v>93297</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>58270</v>
+        <v>58976</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40803</v>
+        <v>40829</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54146</v>
+        <v>55032</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49242</v>
+        <v>50360</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39618</v>
+        <v>38692</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>64716</v>
+        <v>65753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96595</v>
+        <v>96921</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>91705</v>
+        <v>91618</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53553</v>
+        <v>53573</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>101130</v>
+        <v>98810</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>142010</v>
+        <v>140287</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>133692</v>
+        <v>132324</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>85173</v>
+        <v>86665</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35250</v>
+        <v>34447</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42123</v>
+        <v>42033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31933</v>
+        <v>30836</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>78303</v>
+        <v>77615</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>73706</v>
+        <v>75602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>81706</v>
+        <v>82680</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>68993</v>
+        <v>69557</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>115260</v>
+        <v>115431</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>117605</v>
+        <v>117394</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>132627</v>
+        <v>131894</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>108583</v>
+        <v>109122</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>202931</v>
+        <v>202925</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61816</v>
+        <v>61567</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74287</v>
+        <v>76526</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>57025</v>
+        <v>56941</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>117828</v>
+        <v>119649</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>109710</v>
+        <v>109741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>120169</v>
+        <v>118983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>105109</v>
+        <v>105866</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>149208</v>
+        <v>149336</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>160588</v>
+        <v>159449</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>179917</v>
+        <v>180746</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>152417</v>
+        <v>153044</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>254223</v>
+        <v>256432</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11804</v>
+        <v>12380</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28106</v>
+        <v>29007</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18383</v>
+        <v>19022</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>34559</v>
+        <v>34487</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34363</v>
+        <v>35274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>53228</v>
+        <v>51957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29487</v>
+        <v>29355</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>55369</v>
+        <v>55626</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51116</v>
+        <v>52319</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>87185</v>
+        <v>87340</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>53820</v>
+        <v>54953</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>95277</v>
+        <v>96366</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30102</v>
+        <v>30978</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53195</v>
+        <v>56079</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39072</v>
+        <v>37581</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57012</v>
+        <v>55663</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59255</v>
+        <v>59898</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>84877</v>
+        <v>81769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>55819</v>
+        <v>54762</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>77418</v>
+        <v>78147</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81252</v>
+        <v>82128</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>126467</v>
+        <v>126564</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>86455</v>
+        <v>85394</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>126878</v>
+        <v>125605</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10925</v>
+        <v>11446</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46427</v>
+        <v>45542</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49209</v>
+        <v>48958</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>53048</v>
+        <v>55136</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>47358</v>
+        <v>47343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>109032</v>
+        <v>109614</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>106326</v>
+        <v>109437</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>89805</v>
+        <v>91197</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>61553</v>
+        <v>63916</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>165317</v>
+        <v>163758</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>164149</v>
+        <v>165203</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>153704</v>
+        <v>152382</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27370</v>
+        <v>28823</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74994</v>
+        <v>74385</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>78957</v>
+        <v>80939</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90125</v>
+        <v>89348</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74748</v>
+        <v>75807</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>146377</v>
+        <v>147106</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>144026</v>
+        <v>146751</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>122551</v>
+        <v>124650</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>95997</v>
+        <v>96805</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>213060</v>
+        <v>213015</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>215281</v>
+        <v>217990</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>200847</v>
+        <v>201608</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9216</v>
+        <v>8751</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17394</v>
+        <v>17654</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10686</v>
+        <v>10229</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8587</v>
+        <v>8810</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16649</v>
+        <v>16750</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>42224</v>
+        <v>43066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20041</v>
+        <v>20206</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22384</v>
+        <v>21894</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28429</v>
+        <v>30151</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>66681</v>
+        <v>66458</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>34638</v>
+        <v>35519</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>34544</v>
+        <v>34125</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24208</v>
+        <v>24099</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37626</v>
+        <v>37755</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27071</v>
+        <v>27685</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19972</v>
+        <v>20225</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36662</v>
+        <v>36787</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>68929</v>
+        <v>68330</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>40927</v>
+        <v>41178</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>35581</v>
+        <v>35308</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>53788</v>
+        <v>54421</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>99051</v>
+        <v>99013</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>60001</v>
+        <v>62134</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>52844</v>
+        <v>51458</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18166</v>
+        <v>17318</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26246</v>
+        <v>27834</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>32117</v>
+        <v>32756</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>25596</v>
+        <v>25797</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>34777</v>
+        <v>35983</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>37147</v>
+        <v>36805</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>52580</v>
+        <v>51818</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>36710</v>
+        <v>36507</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>59135</v>
+        <v>61098</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>70292</v>
+        <v>69584</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>91746</v>
+        <v>91051</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>66249</v>
+        <v>65276</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>38808</v>
+        <v>38007</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>49962</v>
+        <v>50597</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>56511</v>
+        <v>56715</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43466</v>
+        <v>43295</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>59573</v>
+        <v>59658</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>63307</v>
+        <v>61501</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>82161</v>
+        <v>82168</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>53422</v>
+        <v>52941</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>91995</v>
+        <v>91909</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>106169</v>
+        <v>103351</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>129683</v>
+        <v>130127</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>90377</v>
+        <v>89264</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>46029</v>
+        <v>45567</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>46661</v>
+        <v>47286</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>54769</v>
+        <v>55741</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>86411</v>
+        <v>83954</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>73315</v>
+        <v>72787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>93795</v>
+        <v>89959</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>123414</v>
+        <v>120206</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>168443</v>
+        <v>171749</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>126222</v>
+        <v>124537</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>149413</v>
+        <v>148908</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>189879</v>
+        <v>188955</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>265656</v>
+        <v>266364</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>76455</v>
+        <v>74731</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>78127</v>
+        <v>79199</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>91027</v>
+        <v>89006</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>126562</v>
+        <v>125378</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>107326</v>
+        <v>107990</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>131619</v>
+        <v>129839</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>168512</v>
+        <v>166244</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>211214</v>
+        <v>212734</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>172795</v>
+        <v>170663</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>201365</v>
+        <v>199446</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>244490</v>
+        <v>245374</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>325841</v>
+        <v>324799</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>64249</v>
+        <v>64819</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>70461</v>
+        <v>72489</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>39567</v>
+        <v>40046</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>75261</v>
+        <v>75281</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>118152</v>
+        <v>121662</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>133546</v>
+        <v>129643</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>97585</v>
+        <v>99516</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>145987</v>
+        <v>146475</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>196381</v>
+        <v>194468</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>215084</v>
+        <v>215784</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>148165</v>
+        <v>149197</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>234945</v>
+        <v>230839</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>97675</v>
+        <v>98018</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>109679</v>
+        <v>113049</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>68397</v>
+        <v>70060</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>110653</v>
+        <v>109488</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>163691</v>
+        <v>165929</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>181181</v>
+        <v>178049</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>141220</v>
+        <v>143874</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>184676</v>
+        <v>183674</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>249246</v>
+        <v>250050</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>277300</v>
+        <v>276216</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>200249</v>
+        <v>202317</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>287479</v>
+        <v>282174</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>369597</v>
+        <v>372897</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>318976</v>
+        <v>319703</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>442495</v>
+        <v>438902</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>700032</v>
+        <v>692608</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>643483</v>
+        <v>640572</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>736143</v>
+        <v>732393</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1090623</v>
+        <v>1092167</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>986674</v>
+        <v>984030</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1202179</v>
+        <v>1189095</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>451926</v>
+        <v>450122</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>390235</v>
+        <v>390059</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>524917</v>
+        <v>521446</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>798929</v>
+        <v>794393</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>742748</v>
+        <v>742852</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>814877</v>
+        <v>816535</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1224813</v>
+        <v>1221679</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1105051</v>
+        <v>1104885</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1317873</v>
+        <v>1310263</v>
       </c>
     </row>
     <row r="40">
